--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.085893666666667</v>
+        <v>0.5277743333333333</v>
       </c>
       <c r="H2">
-        <v>3.257681</v>
+        <v>1.583323</v>
       </c>
       <c r="I2">
-        <v>0.02840400986010361</v>
+        <v>0.01400965908295571</v>
       </c>
       <c r="J2">
-        <v>0.02840400986010361</v>
+        <v>0.01400965908295571</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.211751333333333</v>
+        <v>0.03057133333333333</v>
       </c>
       <c r="N2">
-        <v>9.635254</v>
+        <v>0.09171399999999999</v>
       </c>
       <c r="O2">
-        <v>0.9274105493513785</v>
+        <v>0.1084248755136686</v>
       </c>
       <c r="P2">
-        <v>0.9274105493513782</v>
+        <v>0.1084248755136687</v>
       </c>
       <c r="Q2">
-        <v>3.487620431774888</v>
+        <v>0.01613476506911111</v>
       </c>
       <c r="R2">
-        <v>31.388583885974</v>
+        <v>0.145212885622</v>
       </c>
       <c r="S2">
-        <v>0.02634217838814066</v>
+        <v>0.00151899554205841</v>
       </c>
       <c r="T2">
-        <v>0.02634217838814065</v>
+        <v>0.00151899554205841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.085893666666667</v>
+        <v>0.5277743333333333</v>
       </c>
       <c r="H3">
-        <v>3.257681</v>
+        <v>1.583323</v>
       </c>
       <c r="I3">
-        <v>0.02840400986010361</v>
+        <v>0.01400965908295571</v>
       </c>
       <c r="J3">
-        <v>0.02840400986010361</v>
+        <v>0.01400965908295571</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.754162</v>
       </c>
       <c r="O3">
-        <v>0.07258945064862164</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="P3">
-        <v>0.07258945064862163</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="Q3">
-        <v>0.2729799131468889</v>
+        <v>0.1326757822584445</v>
       </c>
       <c r="R3">
-        <v>2.456819218322</v>
+        <v>1.194082040326</v>
       </c>
       <c r="S3">
-        <v>0.002061831471962954</v>
+        <v>0.0124906635408973</v>
       </c>
       <c r="T3">
-        <v>0.002061831471962953</v>
+        <v>0.0124906635408973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>101.751665</v>
       </c>
       <c r="I4">
-        <v>0.887181800778517</v>
+        <v>0.9003255417707673</v>
       </c>
       <c r="J4">
-        <v>0.8871818007785169</v>
+        <v>0.9003255417707672</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.211751333333333</v>
+        <v>0.03057133333333333</v>
       </c>
       <c r="N4">
-        <v>9.635254</v>
+        <v>0.09171399999999999</v>
       </c>
       <c r="O4">
-        <v>0.9274105493513785</v>
+        <v>0.1084248755136686</v>
       </c>
       <c r="P4">
-        <v>0.9274105493513782</v>
+        <v>0.1084248755136687</v>
       </c>
       <c r="Q4">
-        <v>108.9336819108789</v>
+        <v>1.036894689312222</v>
       </c>
       <c r="R4">
-        <v>980.40313719791</v>
+        <v>9.332052203809999</v>
       </c>
       <c r="S4">
-        <v>0.8227817612345497</v>
+        <v>0.09761768478827172</v>
       </c>
       <c r="T4">
-        <v>0.8227817612345494</v>
+        <v>0.09761768478827174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>101.751665</v>
       </c>
       <c r="I5">
-        <v>0.887181800778517</v>
+        <v>0.9003255417707673</v>
       </c>
       <c r="J5">
-        <v>0.8871818007785169</v>
+        <v>0.9003255417707672</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,10 +744,10 @@
         <v>0.754162</v>
       </c>
       <c r="O5">
-        <v>0.07258945064862164</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="P5">
-        <v>0.07258945064862163</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="Q5">
         <v>8.52635990885889</v>
@@ -756,10 +756,10 @@
         <v>76.73723917973</v>
       </c>
       <c r="S5">
-        <v>0.06440003954396745</v>
+        <v>0.8027078569824956</v>
       </c>
       <c r="T5">
-        <v>0.06440003954396742</v>
+        <v>0.8027078569824955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>9.681538</v>
       </c>
       <c r="I6">
-        <v>0.08441418936137941</v>
+        <v>0.08566479914627706</v>
       </c>
       <c r="J6">
-        <v>0.0844141893613794</v>
+        <v>0.08566479914627706</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.211751333333333</v>
+        <v>0.03057133333333333</v>
       </c>
       <c r="N6">
-        <v>9.635254</v>
+        <v>0.09171399999999999</v>
       </c>
       <c r="O6">
-        <v>0.9274105493513785</v>
+        <v>0.1084248755136686</v>
       </c>
       <c r="P6">
-        <v>0.9274105493513782</v>
+        <v>0.1084248755136687</v>
       </c>
       <c r="Q6">
-        <v>10.36489752673911</v>
+        <v>0.09865917512577776</v>
       </c>
       <c r="R6">
-        <v>93.28407774065199</v>
+        <v>0.8879325761319998</v>
       </c>
       <c r="S6">
-        <v>0.07828660972868817</v>
+        <v>0.009288195183338517</v>
       </c>
       <c r="T6">
-        <v>0.07828660972868813</v>
+        <v>0.009288195183338521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.681538</v>
       </c>
       <c r="I7">
-        <v>0.08441418936137941</v>
+        <v>0.08566479914627706</v>
       </c>
       <c r="J7">
-        <v>0.0844141893613794</v>
+        <v>0.08566479914627706</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.754162</v>
       </c>
       <c r="O7">
-        <v>0.07258945064862164</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="P7">
-        <v>0.07258945064862163</v>
+        <v>0.8915751244863314</v>
       </c>
       <c r="Q7">
         <v>0.8112720067951111</v>
@@ -880,10 +880,10 @@
         <v>7.301448061156</v>
       </c>
       <c r="S7">
-        <v>0.006127579632691253</v>
+        <v>0.07637660396293854</v>
       </c>
       <c r="T7">
-        <v>0.006127579632691251</v>
+        <v>0.07637660396293854</v>
       </c>
     </row>
   </sheetData>
